--- a/Stand_Up.xlsx
+++ b/Stand_Up.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2AFC08-A40B-46F8-9BCA-464FF2B90384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359FA5C1-6B0F-4A70-ABE2-2B26C8156193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="105">
   <si>
     <t>Prsanna</t>
   </si>
@@ -341,12 +341,6 @@
     <t>python practice filetrs</t>
   </si>
   <si>
-    <t>splunk to service now ticket creation exploring</t>
-  </si>
-  <si>
-    <t>html,data iq concepts</t>
-  </si>
-  <si>
     <t>pyantic in python practice</t>
   </si>
   <si>
@@ -359,22 +353,19 @@
     <t>aws qlue in aws quicksight</t>
   </si>
   <si>
-    <t>pydantic in python practice</t>
-  </si>
-  <si>
-    <t>compeled</t>
-  </si>
-  <si>
     <t>html code</t>
   </si>
   <si>
-    <t>data iq concepts</t>
-  </si>
-  <si>
-    <t>Sql practice</t>
-  </si>
-  <si>
     <t>splunk to service now ticket creation exploring ( project work)</t>
+  </si>
+  <si>
+    <t>prasanna</t>
+  </si>
+  <si>
+    <t>Docker volumes</t>
+  </si>
+  <si>
+    <t>dataiku concepts</t>
   </si>
 </sst>
 </file>
@@ -758,11 +749,11 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C160" sqref="C160"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,8 +2003,8 @@
       <c r="C133" t="s">
         <v>93</v>
       </c>
-      <c r="E133" t="s">
-        <v>35</v>
+      <c r="F133" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -2022,8 +2013,8 @@
       <c r="C134" t="s">
         <v>94</v>
       </c>
-      <c r="E134" t="s">
-        <v>35</v>
+      <c r="F134" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -2032,8 +2023,8 @@
       <c r="C135" t="s">
         <v>86</v>
       </c>
-      <c r="E135" t="s">
-        <v>35</v>
+      <c r="F135" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -2042,80 +2033,93 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>98</v>
-      </c>
-      <c r="E136" t="s">
-        <v>35</v>
+        <v>96</v>
+      </c>
+      <c r="F136" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="7"/>
       <c r="C137" t="s">
-        <v>80</v>
-      </c>
-      <c r="E137" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="F137" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
-      <c r="B138" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B138" s="7"/>
       <c r="C138" t="s">
-        <v>97</v>
-      </c>
-      <c r="E138" t="s">
-        <v>26</v>
+        <v>80</v>
+      </c>
+      <c r="F138" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
-      <c r="B139" s="7"/>
+      <c r="B139" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="C139" t="s">
-        <v>96</v>
-      </c>
-      <c r="E139" t="s">
-        <v>35</v>
+        <v>100</v>
+      </c>
+      <c r="F139" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="7"/>
       <c r="C140" t="s">
-        <v>87</v>
+        <v>104</v>
+      </c>
+      <c r="E140" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
-      <c r="B141" s="7" t="s">
-        <v>61</v>
+      <c r="B141" s="7"/>
+      <c r="C141" t="s">
+        <v>86</v>
+      </c>
+      <c r="F141" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="7"/>
-      <c r="C142" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F142" t="s">
-        <v>18</v>
+      <c r="C142" t="s">
+        <v>101</v>
+      </c>
+      <c r="E142" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="7"/>
       <c r="C143" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="7"/>
+      <c r="C144" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E144" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
@@ -2148,7 +2152,7 @@
         <v>92</v>
       </c>
       <c r="F147" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -2156,13 +2160,13 @@
         <v>45642</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="C148" t="s">
-        <v>100</v>
-      </c>
-      <c r="F148" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -2171,188 +2175,131 @@
       <c r="C149" t="s">
         <v>94</v>
       </c>
-      <c r="E149" t="s">
-        <v>35</v>
+      <c r="D149" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
       <c r="C150" t="s">
-        <v>100</v>
-      </c>
-      <c r="E150" t="s">
-        <v>26</v>
+        <v>99</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
-      <c r="B151" s="6"/>
+      <c r="B151" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C151" t="s">
-        <v>94</v>
-      </c>
-      <c r="E151" t="s">
-        <v>35</v>
+        <v>103</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" t="s">
-        <v>101</v>
-      </c>
-      <c r="E152" t="s">
-        <v>35</v>
+        <v>80</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>102</v>
-      </c>
-      <c r="F153" t="s">
-        <v>18</v>
+        <v>100</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="7"/>
       <c r="C154" t="s">
-        <v>15</v>
-      </c>
-      <c r="F154" t="s">
-        <v>18</v>
+        <v>86</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="7"/>
       <c r="C155" t="s">
-        <v>80</v>
-      </c>
-      <c r="E155" t="s">
-        <v>26</v>
+        <v>104</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
-      <c r="B156" s="7" t="s">
-        <v>1</v>
+      <c r="B156" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C156" t="s">
-        <v>104</v>
-      </c>
-      <c r="F156" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="5"/>
-      <c r="B157" s="7"/>
-      <c r="C157" t="s">
-        <v>86</v>
-      </c>
-      <c r="F157" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="5"/>
-      <c r="B158" s="7"/>
-      <c r="C158" t="s">
-        <v>107</v>
-      </c>
-      <c r="E158" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="5"/>
-      <c r="B159" s="7"/>
-      <c r="C159" t="s">
-        <v>105</v>
-      </c>
-      <c r="E159" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="5"/>
-      <c r="B160" s="7"/>
-      <c r="C160" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="5"/>
-      <c r="B161" s="7"/>
-      <c r="C161" t="s">
-        <v>106</v>
-      </c>
-      <c r="E161" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="5"/>
-      <c r="B162" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C162" t="s">
         <v>92</v>
       </c>
-      <c r="E162" t="s">
-        <v>35</v>
+      <c r="D156" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A148:A162"/>
-    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="A103:A115"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A71:A86"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A54:A69"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A35:A52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A88:A100"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A148:A156"/>
+    <mergeCell ref="B148:B150"/>
     <mergeCell ref="B153:B155"/>
-    <mergeCell ref="B156:B161"/>
     <mergeCell ref="A117:A131"/>
     <mergeCell ref="B117:B119"/>
     <mergeCell ref="B120:B121"/>
     <mergeCell ref="B122:B124"/>
     <mergeCell ref="B125:B128"/>
     <mergeCell ref="B129:B130"/>
-    <mergeCell ref="A88:A100"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A35:A52"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="A54:A69"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A71:A86"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="A103:A115"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B115"/>
     <mergeCell ref="A133:A147"/>
     <mergeCell ref="B133:B135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B144"/>
     <mergeCell ref="B145:B146"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
